--- a/phpspreadsheet/test.xlsx
+++ b/phpspreadsheet/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\hrm\phpspreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\THUCTAP\VENTECH\PROJECT\hrm\phpspreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748C2059-E0D8-4C79-BCF4-FA440724D0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D98BDA-E04E-4A45-AB50-0C24D43CBEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A4C7DD89-4B6F-430B-8F4B-3F4B381DFB13}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A4C7DD89-4B6F-430B-8F4B-3F4B381DFB13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>phone number</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>0911616816</t>
+  </si>
+  <si>
+    <t>hinh anh</t>
   </si>
 </sst>
 </file>
@@ -85,7 +88,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -94,7 +97,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -142,6 +145,161 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1767840</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1394460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{266B16E7-AE24-61D4-B63F-04CF6081A457}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1158240" y="922020"/>
+          <a:ext cx="1615440" cy="1165860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1767840</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1394460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5984FC72-78EF-4299-BA23-2EEC3C7C350A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1158240" y="922020"/>
+          <a:ext cx="1615440" cy="1165860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1767840</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1394460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7583CCBE-A304-441D-A5B8-AC415B144E65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1158240" y="922020"/>
+          <a:ext cx="1615440" cy="1165860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,82 +599,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E251D03-0D05-4397-BAB6-8A5DC09B3267}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.19921875" customWidth="1"/>
+    <col min="2" max="2" width="26.796875" customWidth="1"/>
+    <col min="5" max="5" width="19.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="119.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="121.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="131.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:5" ht="115.8" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{B4AD8948-A066-4CA6-BF35-63AB7C372D51}"/>
-    <hyperlink ref="D3:D4" r:id="rId2" display="Linhoppa8@gmail.com" xr:uid="{68BF190C-BDB5-49FC-8B14-70F40C969A0C}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{E81581B7-811C-4447-9CDC-B6C6BDEC0202}"/>
-    <hyperlink ref="D4" r:id="rId4" xr:uid="{8F2BE701-6D23-425B-9AF9-57A31331E242}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{B4AD8948-A066-4CA6-BF35-63AB7C372D51}"/>
+    <hyperlink ref="E3:E4" r:id="rId2" display="Linhoppa8@gmail.com" xr:uid="{68BF190C-BDB5-49FC-8B14-70F40C969A0C}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{E81581B7-811C-4447-9CDC-B6C6BDEC0202}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{8F2BE701-6D23-425B-9AF9-57A31331E242}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>